--- a/statistics/random_walk/inter_randomwalk.xlsx
+++ b/statistics/random_walk/inter_randomwalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDE3E4E-1065-4B2E-B3AB-72BF45BF849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11D9EAC-B9E4-43DF-B17C-BD906F99E028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E63E39B-2059-4DE7-9978-92DC12C1DCBE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">inter_randomwalk!$A$1:$E$35</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">inter_randomwalk!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t>graph_file</t>
   </si>
@@ -134,17 +134,41 @@
     <t>science &amp; consp.</t>
   </si>
   <si>
-    <t>wn &amp; consp.</t>
-  </si>
-  <si>
     <t>WvP &amp; MR</t>
+  </si>
+  <si>
+    <t>lgbt_top_Conservative_top.txt</t>
+  </si>
+  <si>
+    <t>lgbt_both_Conservative_both.txt</t>
+  </si>
+  <si>
+    <t>space_top_conspiracy_top.txt</t>
+  </si>
+  <si>
+    <t>space_both_conspiracy_both.txt</t>
+  </si>
+  <si>
+    <t>lgbt &amp; Cons.</t>
+  </si>
+  <si>
+    <t>space &amp; consp</t>
+  </si>
+  <si>
+    <t>science_top_conspiracy_top.txt</t>
+  </si>
+  <si>
+    <t>science_controversial_conspiracy_controversial</t>
+  </si>
+  <si>
+    <t>no inter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +177,30 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -206,17 +244,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -250,24 +277,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -302,32 +311,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,14 +565,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25BDF1E2-3C5B-4537-84FC-037CE2D7A864}" name="inter_randomwalk" displayName="inter_randomwalk" ref="A1:E35" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E35" xr:uid="{25BDF1E2-3C5B-4537-84FC-037CE2D7A864}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25BDF1E2-3C5B-4537-84FC-037CE2D7A864}" name="inter_randomwalk" displayName="inter_randomwalk" ref="A1:E52" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E52" xr:uid="{25BDF1E2-3C5B-4537-84FC-037CE2D7A864}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2F2DBDFC-3305-454E-A6F8-ACB7E10D7C8E}" uniqueName="1" name="graph_file" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4AC7C807-FFE6-486A-9B38-FE40CF087224}" uniqueName="2" name="n_experiments" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{37EFB2FB-2790-41CB-8719-FC2263D8AA63}" uniqueName="4" name="polarity" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A54EAF1A-BECA-40B4-8B02-6EE82AC937C9}" uniqueName="5" name="type" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{02ACD41F-3A73-4775-B79B-C0703BD74E75}" uniqueName="6" name="avg_walklength" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2F2DBDFC-3305-454E-A6F8-ACB7E10D7C8E}" uniqueName="1" name="graph_file" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4AC7C807-FFE6-486A-9B38-FE40CF087224}" uniqueName="2" name="n_experiments" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{37EFB2FB-2790-41CB-8719-FC2263D8AA63}" uniqueName="4" name="polarity" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A54EAF1A-BECA-40B4-8B02-6EE82AC937C9}" uniqueName="5" name="type" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{02ACD41F-3A73-4775-B79B-C0703BD74E75}" uniqueName="6" name="avg_walklength" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -692,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DB5864-5B6D-4D83-B906-A498C721FAC3}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H3" sqref="H3:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,745 +892,1085 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
         <v>0.78120000000000001</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>14.776300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
         <v>0.52239999999999998</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>64.278499999999994</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
         <v>0.47010000000000002</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>70.308999999999997</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
         <v>0.8972</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>18.218</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="3">
         <v>0.78120000000000001</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="4">
         <v>0.8972</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="4">
         <v>0.78090000000000004</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="3">
         <v>0.52239999999999998</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="4">
         <v>0.82340000000000002</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="5">
         <v>0.46</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="4">
         <v>0.47010000000000002</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="4">
         <v>0.81210000000000004</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="5">
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
         <v>0.82340000000000002</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>39.493000000000002</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8">
+      <c r="I6" s="27">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="J6" s="28">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="K6" s="28">
         <v>0.76329999999999998</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8">
+      <c r="L6" s="27">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="M6" s="28">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="N6" s="29">
         <v>0.52</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="13">
+      <c r="O6" s="28">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="P6" s="28">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="Q6" s="29">
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
         <v>0.81210000000000004</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>54.414999999999999</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="27">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="J7" s="28">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="L7" s="27">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="N7" s="29">
+        <v>0.9385</v>
+      </c>
+      <c r="O7" s="28">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="P7" s="28">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>0.76329999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>14.6356</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="L8" s="30">
+        <v>0.996</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0.46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>64.027500000000003</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.80679999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>70.555000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15">
+        <v>100</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="16">
+        <v>18.023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12">
+        <v>100</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.52</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="13">
+        <v>55.945500000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="15">
+        <v>100</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.48</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="16">
+        <v>70.674499999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>15.833500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>79.412999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>95.494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
         <v>0.80620000000000003</v>
       </c>
-      <c r="J7" s="8">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>15.936299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>84.9495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>97.552499999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
         <v>0.64319999999999999</v>
       </c>
-      <c r="K7" s="8">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>17.969799999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
         <v>0.95030000000000003</v>
       </c>
-      <c r="N7" s="8">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0.39750000000000002</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>17.678999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
         <v>0.83320000000000005</v>
       </c>
-      <c r="Q7" s="13">
-        <v>0.39660000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>25.556000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>0.98109999999999997</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>15.779199999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>48.564500000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>43.461500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>24.0367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>13.862500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>55.966999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>15.8757</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>0.9385</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>49.914000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>43.850999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
         <v>50</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C38">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1">
-        <v>14.6356</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="E38">
+        <v>16.1127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>52.566499999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>0.2717</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>46.801000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="14">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0.77339999999999998</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0.9385</v>
-      </c>
-      <c r="O8" s="15">
-        <v>0.94420000000000004</v>
-      </c>
-      <c r="P8" s="15">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0.76329999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>16.3093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0.996</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1">
-        <v>64.027500000000003</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E42">
+        <v>22.7745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>70.555000000000007</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.76329999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E43">
+        <v>31.984000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" s="20">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
-        <v>18.023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E44">
+        <v>16.786200000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1">
-        <v>55.945500000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E45" s="18">
+        <v>27.776499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="18">
+        <v>38.290500000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="17">
+        <v>100</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
-        <v>70.674499999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E47" s="19">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="17">
+        <v>100</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="19">
+        <v>64.77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="17">
+        <v>100</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="19">
+        <v>103.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="17">
+        <v>100</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
-        <v>15.833500000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.51539999999999997</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E50" s="19">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="17">
+        <v>100</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="1">
-        <v>79.412999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.39660000000000001</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E51" s="19">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="17">
+        <v>100</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="1">
-        <v>95.494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.80620000000000003</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15.936299999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1">
-        <v>84.9495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.39750000000000002</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1">
-        <v>97.552499999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>17.969799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.95030000000000003</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1">
-        <v>17.678999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>100</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.83320000000000005</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
-        <v>25.556000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.98109999999999997</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>15.779199999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1">
-        <v>48.564500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1">
-        <v>100</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.94420000000000004</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
-        <v>43.461500000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1">
-        <v>100</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>24.0367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1">
-        <v>100</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.77339999999999998</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.862500000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1">
-        <v>100</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1">
-        <v>55.966999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>15.8757</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.9385</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1">
-        <v>49.914000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.93610000000000004</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1">
-        <v>43.850999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.72960000000000003</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1">
-        <v>16.1127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1">
-        <v>100</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.47710000000000002</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1">
-        <v>52.566499999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.2717</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1">
-        <v>46.801000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E52" s="19">
+        <v>104.92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
